--- a/CS380Report.xlsx
+++ b/CS380Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\GitHub\ClusteringAndPathFinding_CS380\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BD322-692D-4BB3-81CB-F901FB6B5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135D1658-2577-4909-852D-6F3B0E1443F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94330BBF-C3CF-4803-ACA7-3E3675929305}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,32 @@
   <si>
     <t>Center
 (Same Place)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neighbor Radius : 5.0</t>
+  </si>
+  <si>
+    <t>Separation Radius : 2.0</t>
+  </si>
+  <si>
+    <t>Separation Weight : 2.0</t>
+  </si>
+  <si>
+    <t>Alignment Weight : 1.0</t>
+  </si>
+  <si>
+    <t>Cohesion Weight : 1.5</t>
+  </si>
+  <si>
+    <t>[Linear] Separation Mode   &amp;   [Center] Cohesion Mode</t>
+  </si>
+  <si>
+    <t>Speed : 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,13 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDEEF4F-1FDF-4727-BF8F-B36E90D8B866}">
-  <dimension ref="B9:V22"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,487 +580,527 @@
     <col min="5" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E15" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F15" s="3">
         <v>2.38</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G15" s="3">
         <v>0.91</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H15" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E16" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F16" s="3">
         <v>2.38</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G16" s="3">
         <v>0.91</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H16" s="3">
         <v>1.02</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E17" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F17" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G17" s="3">
         <v>0.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H17" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E18" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F18" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G18" s="3">
         <v>0.8</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H18" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E19" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F14" s="5">
-        <f>AVERAGE(L14:U14)</f>
+      <c r="F19" s="3">
+        <f>AVERAGE(L19:U19)</f>
         <v>4.2766999999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G19" s="3">
         <v>0.91</v>
       </c>
-      <c r="H14" s="5">
-        <f>AVERAGE(L15:U15)</f>
+      <c r="H19" s="3">
+        <f>AVERAGE(L20:U20)</f>
         <v>1.605</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L14">
+      <c r="L19">
         <v>3.99</v>
       </c>
-      <c r="M14">
+      <c r="M19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N14">
+      <c r="N19">
         <v>3.42</v>
       </c>
-      <c r="O14">
+      <c r="O19">
         <v>5.0869999999999997</v>
       </c>
-      <c r="P14">
+      <c r="P19">
         <v>4.92</v>
       </c>
-      <c r="Q14">
+      <c r="Q19">
         <v>4.07</v>
       </c>
-      <c r="R14">
+      <c r="R19">
         <v>4.8</v>
       </c>
-      <c r="S14">
+      <c r="S19">
         <v>3.41</v>
       </c>
-      <c r="T14">
+      <c r="T19">
         <v>4.51</v>
       </c>
-      <c r="U14">
+      <c r="U19">
         <v>3.96</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E20" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F15" s="5">
-        <f>AVERAGE(L16:U16)</f>
+      <c r="F20" s="3">
+        <f>AVERAGE(L21:U21)</f>
         <v>4.3639999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G20" s="3">
         <v>0.91</v>
       </c>
-      <c r="H15" s="5">
-        <f>AVERAGE(L17:U17)</f>
+      <c r="H20" s="3">
+        <f>AVERAGE(L22:U22)</f>
         <v>1.5550000000000002</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L15">
+      <c r="L20">
         <v>1.72</v>
       </c>
-      <c r="M15">
+      <c r="M20">
         <v>1.64</v>
       </c>
-      <c r="N15">
+      <c r="N20">
         <v>1.37</v>
       </c>
-      <c r="O15">
+      <c r="O20">
         <v>1.63</v>
       </c>
-      <c r="P15">
+      <c r="P20">
         <v>1.41</v>
       </c>
-      <c r="Q15">
+      <c r="Q20">
         <v>1.72</v>
       </c>
-      <c r="R15">
+      <c r="R20">
         <v>1.72</v>
       </c>
-      <c r="S15">
+      <c r="S20">
         <v>1.65</v>
       </c>
-      <c r="T15">
+      <c r="T20">
         <v>1.75</v>
-      </c>
-      <c r="U15">
-        <v>1.44</v>
-      </c>
-      <c r="V15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F16" s="5">
-        <f>AVERAGE(L19:U19)</f>
-        <v>4.2710000000000008</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="5">
-        <f>AVERAGE(L20:U20)</f>
-        <v>1.47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="M16">
-        <v>5.38</v>
-      </c>
-      <c r="N16">
-        <v>3.39</v>
-      </c>
-      <c r="O16">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <v>5.22</v>
-      </c>
-      <c r="R16">
-        <v>3.77</v>
-      </c>
-      <c r="S16">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="T16">
-        <v>3.87</v>
-      </c>
-      <c r="U16">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f>AVERAGE(L21:U21)</f>
-        <v>4.266</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H17" s="5">
-        <f>AVERAGE(L22:U22)</f>
-        <v>1.538</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <v>1.61</v>
-      </c>
-      <c r="M17">
-        <v>1.49</v>
-      </c>
-      <c r="N17">
-        <v>1.43</v>
-      </c>
-      <c r="O17">
-        <v>1.58</v>
-      </c>
-      <c r="P17">
-        <v>1.51</v>
-      </c>
-      <c r="Q17">
-        <v>1.7</v>
-      </c>
-      <c r="R17">
-        <v>1.39</v>
-      </c>
-      <c r="S17">
-        <v>1.64</v>
-      </c>
-      <c r="T17">
-        <v>1.63</v>
-      </c>
-      <c r="U17">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19">
-        <v>4.49</v>
-      </c>
-      <c r="M19">
-        <v>3.88</v>
-      </c>
-      <c r="N19">
-        <v>3.61</v>
-      </c>
-      <c r="O19">
-        <v>3.93</v>
-      </c>
-      <c r="P19">
-        <v>4.37</v>
-      </c>
-      <c r="Q19">
-        <v>4.43</v>
-      </c>
-      <c r="R19">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="S19">
-        <v>4.88</v>
-      </c>
-      <c r="T19">
-        <v>4.59</v>
-      </c>
-      <c r="U19">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>1.37</v>
-      </c>
-      <c r="M20">
-        <v>1.45</v>
-      </c>
-      <c r="N20">
-        <v>1.6</v>
-      </c>
-      <c r="O20">
-        <v>1.45</v>
-      </c>
-      <c r="P20">
-        <v>1.58</v>
-      </c>
-      <c r="Q20">
-        <v>1.37</v>
-      </c>
-      <c r="R20">
-        <v>1.49</v>
-      </c>
-      <c r="S20">
-        <v>1.53</v>
-      </c>
-      <c r="T20">
-        <v>1.42</v>
       </c>
       <c r="U20">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F21" s="3">
+        <f>AVERAGE(L24:U24)</f>
+        <v>4.2710000000000008</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="3">
+        <f>AVERAGE(L25:U25)</f>
+        <v>1.47</v>
+      </c>
       <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M21">
+        <v>5.38</v>
+      </c>
+      <c r="N21">
+        <v>3.39</v>
+      </c>
+      <c r="O21">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>5.22</v>
+      </c>
+      <c r="R21">
+        <v>3.77</v>
+      </c>
+      <c r="S21">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T21">
+        <v>3.87</v>
+      </c>
+      <c r="U21">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <f>AVERAGE(L26:U26)</f>
+        <v>4.266</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="3">
+        <f>AVERAGE(L27:U27)</f>
+        <v>1.538</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>1.61</v>
+      </c>
+      <c r="M22">
+        <v>1.49</v>
+      </c>
+      <c r="N22">
+        <v>1.43</v>
+      </c>
+      <c r="O22">
+        <v>1.58</v>
+      </c>
+      <c r="P22">
+        <v>1.51</v>
+      </c>
+      <c r="Q22">
+        <v>1.7</v>
+      </c>
+      <c r="R22">
+        <v>1.39</v>
+      </c>
+      <c r="S22">
+        <v>1.64</v>
+      </c>
+      <c r="T22">
+        <v>1.63</v>
+      </c>
+      <c r="U22">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>4.49</v>
+      </c>
+      <c r="M24">
+        <v>3.88</v>
+      </c>
+      <c r="N24">
+        <v>3.61</v>
+      </c>
+      <c r="O24">
+        <v>3.93</v>
+      </c>
+      <c r="P24">
+        <v>4.37</v>
+      </c>
+      <c r="Q24">
+        <v>4.43</v>
+      </c>
+      <c r="R24">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S24">
+        <v>4.88</v>
+      </c>
+      <c r="T24">
+        <v>4.59</v>
+      </c>
+      <c r="U24">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>1.37</v>
+      </c>
+      <c r="M25">
+        <v>1.45</v>
+      </c>
+      <c r="N25">
+        <v>1.6</v>
+      </c>
+      <c r="O25">
+        <v>1.45</v>
+      </c>
+      <c r="P25">
+        <v>1.58</v>
+      </c>
+      <c r="Q25">
+        <v>1.37</v>
+      </c>
+      <c r="R25">
+        <v>1.49</v>
+      </c>
+      <c r="S25">
+        <v>1.53</v>
+      </c>
+      <c r="T25">
+        <v>1.42</v>
+      </c>
+      <c r="U25">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
         <v>19</v>
       </c>
-      <c r="L21">
+      <c r="L26">
         <v>3.7</v>
       </c>
-      <c r="M21">
+      <c r="M26">
         <v>5.04</v>
       </c>
-      <c r="N21">
+      <c r="N26">
         <v>3.51</v>
       </c>
-      <c r="O21">
+      <c r="O26">
         <v>4.3899999999999997</v>
       </c>
-      <c r="P21">
+      <c r="P26">
         <v>5.5</v>
       </c>
-      <c r="Q21">
+      <c r="Q26">
         <v>4.01</v>
       </c>
-      <c r="R21">
+      <c r="R26">
         <v>4.03</v>
       </c>
-      <c r="S21">
+      <c r="S26">
         <v>4.43</v>
       </c>
-      <c r="T21">
+      <c r="T26">
         <v>4.58</v>
       </c>
-      <c r="U21">
+      <c r="U26">
         <v>3.47</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
         <v>20</v>
       </c>
-      <c r="L22">
+      <c r="L27">
         <v>1.64</v>
       </c>
-      <c r="M22">
+      <c r="M27">
         <v>1.59</v>
       </c>
-      <c r="N22">
+      <c r="N27">
         <v>1.51</v>
       </c>
-      <c r="O22">
+      <c r="O27">
         <v>1.43</v>
       </c>
-      <c r="P22">
+      <c r="P27">
         <v>1.63</v>
       </c>
-      <c r="Q22">
+      <c r="Q27">
         <v>1.35</v>
       </c>
-      <c r="R22">
+      <c r="R27">
         <v>1.56</v>
       </c>
-      <c r="S22">
+      <c r="S27">
         <v>1.58</v>
       </c>
-      <c r="T22">
+      <c r="T27">
         <v>1.59</v>
       </c>
-      <c r="U22">
+      <c r="U27">
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
